--- a/data_migration/exports/company.xlsx
+++ b/data_migration/exports/company.xlsx
@@ -491,12 +491,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>022-09-02 23:19:22.039615</t>
+          <t>2022-09-02 23:19:22.039615</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-09-02 23:19:36.016596-04:00</t>
+          <t>2022-09-02 23:19:36.016596</t>
         </is>
       </c>
       <c r="G2" t="n">
